--- a/src/data/summerfall23/leadership_summerfall23.xlsx
+++ b/src/data/summerfall23/leadership_summerfall23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\kcow\code\dspuci-website-gatsby\src\data\summerfall23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abigailbareiss/dspuci-website-gatsby/src/data/summerfall23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591FA7F2-D930-406C-B3FB-BB000987C56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B252076-1B49-EE46-84C8-3E2F92CE7CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Madeline Li</t>
   </si>
   <si>
-    <t>Elin Min</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Mirsab Mirza</t>
+  </si>
+  <si>
+    <t>Julia Lin</t>
   </si>
 </sst>
 </file>
@@ -466,12 +466,12 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -495,47 +495,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -543,7 +543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -551,7 +551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>

--- a/src/data/summerfall23/leadership_summerfall23.xlsx
+++ b/src/data/summerfall23/leadership_summerfall23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abigailbareiss/dspuci-website-gatsby/src/data/summerfall23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B252076-1B49-EE46-84C8-3E2F92CE7CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A218267-2CEB-5E48-9C95-E0E61EB58D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>Madeline Li</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Yoyo Cao</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Julia Lin</t>
+  </si>
+  <si>
+    <t>Ronica Cheng</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,7 +489,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
